--- a/test.xlsx
+++ b/test.xlsx
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -430,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +476,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44074</v>
+        <v>44323</v>
       </c>
       <c r="C2" t="n">
-        <v>0.82</v>
+        <v>0.22</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -488,11 +487,11 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44071</v>
+        <v>44329</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.69%</t>
+          <t>0.66%</t>
         </is>
       </c>
     </row>
@@ -503,10 +502,10 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44050</v>
+        <v>44232</v>
       </c>
       <c r="C3" t="n">
-        <v>0.82</v>
+        <v>0.205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -514,11 +513,11 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44056</v>
+        <v>44238</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>0.61%</t>
         </is>
       </c>
     </row>
@@ -529,10 +528,10 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43959</v>
+        <v>44141</v>
       </c>
       <c r="C4" t="n">
-        <v>0.82</v>
+        <v>0.205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -540,11 +539,11 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>43965</v>
+        <v>44147</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>0.57%</t>
         </is>
       </c>
     </row>
@@ -555,10 +554,10 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43868</v>
+        <v>44074</v>
       </c>
       <c r="C5" t="n">
-        <v>0.77</v>
+        <v>0.205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -566,11 +565,11 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>43874</v>
+        <v>44071</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.07%</t>
+          <t>0.74%</t>
         </is>
       </c>
     </row>
@@ -581,10 +580,10 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43776</v>
+        <v>44050</v>
       </c>
       <c r="C6" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -592,11 +591,11 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>43783</v>
+        <v>44056</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.00%</t>
+          <t>0.72%</t>
         </is>
       </c>
     </row>
@@ -607,10 +606,10 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43686</v>
+        <v>43959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -618,11 +617,11 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>43692</v>
+        <v>43965</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.27%</t>
+          <t>0.86%</t>
         </is>
       </c>
     </row>
@@ -633,7 +632,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43595</v>
+        <v>43868</v>
       </c>
       <c r="C8" t="n">
         <v>0.77</v>
@@ -644,11 +643,11 @@
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>43601</v>
+        <v>43874</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.47%</t>
+          <t>1.07%</t>
         </is>
       </c>
     </row>
@@ -659,10 +658,10 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43504</v>
+        <v>43776</v>
       </c>
       <c r="C9" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -670,587 +669,11 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>43510</v>
+        <v>43783</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>44062</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>44084</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="n">
-        <v>43971</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n">
-        <v>43993</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.05%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n">
-        <v>43880</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>43902</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n">
-        <v>43789</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n">
-        <v>43811</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.37%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n">
-        <v>43691</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n">
-        <v>43720</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.34%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="n">
-        <v>43600</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>43629</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n">
-        <v>43516</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="n">
-        <v>43538</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n">
-        <v>43418</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n">
-        <v>43447</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AMZN</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>FB</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>JPM</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="n">
-        <v>44014</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="n">
-        <v>44043</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.70%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>JPM</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>43924</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="n">
-        <v>43951</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>JPM</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="n">
-        <v>43833</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="n">
-        <v>43861</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.07%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>JPM</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="n">
-        <v>43741</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>43769</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>JPM</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="n">
-        <v>43649</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="n">
-        <v>43677</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.69%</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>JPM</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="n">
-        <v>43559</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>43585</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.89%</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>JPM</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="n">
-        <v>43468</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>43496</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>JPM</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="n">
-        <v>43377</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>43404</v>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BRKB</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>JNJ</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>GOOG</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>NO DATA</t>
+          <t>1.00%</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,2454 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>44426</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>44448</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44335</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>44244</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>44266</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44153</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>44175</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44062</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>44084</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>43971</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>43993</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>43880</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>43902</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>43789</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>43811</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FB</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44379</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>44408</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>44316</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>44201</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>44227</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44109</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>44135</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>44014</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>44043</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.51%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>43924</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>43951</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>43833</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>43861</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.07%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>43741</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>43769</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>BRKB</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>44340</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>44249</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>44264</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.49%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44158</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>44173</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>44067</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>44082</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>43973</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>43991</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>43885</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>43900</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>43794</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>43809</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>43703</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>43718</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO DATA</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44328</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44236</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>44145</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>44175</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44055</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>44084</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>10.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>43963</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>43992</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>43871</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>43900</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>43777</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>43809</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>43689</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>43718</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>44350</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>44372</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>44259</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>44281</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44168</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>44189</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.12%</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>44077</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>44099</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.98%</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>43986</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>44008</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.95%</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>43895</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>43917</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.20%</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>43804</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>43826</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>43713</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>43735</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.37%</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44322</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44231</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44140</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44049</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>43958</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>43867</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.18%</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>43776</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>43685</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.08%</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>44322</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.3475</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>44231</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.3475</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.22%</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44140</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44049</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.62%</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>43957</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>43983</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.24%</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>43867</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>43775</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>43683</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.39%</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>44294</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>44319</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44204</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>44228</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>6.91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>44112</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>44137</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>44021</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>44046</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>43929</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>43952</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>43839</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>43864</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>43747</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.32%</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>43655</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.46%</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>44329</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>44238</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>44147</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>44056</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.63%</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>43964</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>43984</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>43874</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>43893</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>43783</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>43802</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>43692</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>43711</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>44379</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>44405</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.81%</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>44314</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>44200</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>44216</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>44105</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>44125</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>44014</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>44034</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.60%</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>43923</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>43943</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>43832</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>43852</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>43741</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>43761</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>44334</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.04%</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>44243</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.02%</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>44152</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>44175</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>44061</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>44084</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>43969</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>43992</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.79%</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>43875</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>43900</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.74%</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>43784</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>43809</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>43693</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>quarterly</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>43718</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>4.03%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>44323</v>
+        <v>44414</v>
       </c>
       <c r="C2" t="n">
         <v>0.22</v>
@@ -487,11 +487,11 @@
         </is>
       </c>
       <c r="E2" s="2" t="n">
-        <v>44329</v>
+        <v>44420</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.66%</t>
+          <t>0.60%</t>
         </is>
       </c>
     </row>
@@ -502,10 +502,10 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44232</v>
+        <v>44323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.205</v>
+        <v>0.22</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -513,11 +513,11 @@
         </is>
       </c>
       <c r="E3" s="2" t="n">
-        <v>44238</v>
+        <v>44329</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>0.59%</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44141</v>
+        <v>44232</v>
       </c>
       <c r="C4" t="n">
         <v>0.205</v>
@@ -539,11 +539,11 @@
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>44147</v>
+        <v>44238</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.57%</t>
+          <t>0.61%</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>44074</v>
+        <v>44141</v>
       </c>
       <c r="C5" t="n">
         <v>0.205</v>
@@ -565,11 +565,11 @@
         </is>
       </c>
       <c r="E5" s="2" t="n">
-        <v>44071</v>
+        <v>44147</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.74%</t>
+          <t>0.57%</t>
         </is>
       </c>
     </row>
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>44050</v>
+        <v>44074</v>
       </c>
       <c r="C6" t="n">
-        <v>0.82</v>
+        <v>0.205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
         </is>
       </c>
       <c r="E6" s="2" t="n">
-        <v>44056</v>
+        <v>44071</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>0.74%</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43959</v>
+        <v>44050</v>
       </c>
       <c r="C7" t="n">
         <v>0.82</v>
@@ -617,11 +617,11 @@
         </is>
       </c>
       <c r="E7" s="2" t="n">
-        <v>43965</v>
+        <v>44056</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>0.72%</t>
         </is>
       </c>
     </row>
@@ -632,10 +632,10 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43868</v>
+        <v>43959</v>
       </c>
       <c r="C8" t="n">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -643,11 +643,11 @@
         </is>
       </c>
       <c r="E8" s="2" t="n">
-        <v>43874</v>
+        <v>43965</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.07%</t>
+          <t>0.86%</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43776</v>
+        <v>43868</v>
       </c>
       <c r="C9" t="n">
         <v>0.77</v>
@@ -669,11 +669,11 @@
         </is>
       </c>
       <c r="E9" s="2" t="n">
-        <v>43783</v>
+        <v>43874</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.00%</t>
+          <t>1.07%</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>0.77%</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.38%</t>
+          <t>2.29%</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>44340</v>
+        <v>44431</v>
       </c>
       <c r="C35" t="n">
         <v>1.06</v>
@@ -1207,11 +1207,11 @@
         </is>
       </c>
       <c r="E35" s="2" t="n">
-        <v>44355</v>
+        <v>44446</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2.61%</t>
+          <t>2.45%</t>
         </is>
       </c>
     </row>
@@ -1222,10 +1222,10 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>44249</v>
+        <v>44340</v>
       </c>
       <c r="C36" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1233,11 +1233,11 @@
         </is>
       </c>
       <c r="E36" s="2" t="n">
-        <v>44264</v>
+        <v>44355</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2.49%</t>
+          <t>2.52%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>44158</v>
+        <v>44249</v>
       </c>
       <c r="C37" t="n">
         <v>1.01</v>
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="E37" s="2" t="n">
-        <v>44173</v>
+        <v>44264</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2.59%</t>
+          <t>2.49%</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>44067</v>
+        <v>44158</v>
       </c>
       <c r="C38" t="n">
         <v>1.01</v>
@@ -1285,11 +1285,11 @@
         </is>
       </c>
       <c r="E38" s="2" t="n">
-        <v>44082</v>
+        <v>44173</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2.81%</t>
+          <t>2.59%</t>
         </is>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43973</v>
+        <v>44067</v>
       </c>
       <c r="C39" t="n">
         <v>1.01</v>
@@ -1311,11 +1311,11 @@
         </is>
       </c>
       <c r="E39" s="2" t="n">
-        <v>43991</v>
+        <v>44082</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>2.81%</t>
         </is>
       </c>
     </row>
@@ -1326,10 +1326,10 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43885</v>
+        <v>43973</v>
       </c>
       <c r="C40" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1337,11 +1337,11 @@
         </is>
       </c>
       <c r="E40" s="2" t="n">
-        <v>43900</v>
+        <v>43991</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2.72%</t>
+          <t>2.71%</t>
         </is>
       </c>
     </row>
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43794</v>
+        <v>43885</v>
       </c>
       <c r="C41" t="n">
         <v>0.95</v>
@@ -1363,11 +1363,11 @@
         </is>
       </c>
       <c r="E41" s="2" t="n">
-        <v>43809</v>
+        <v>43900</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2.62%</t>
+          <t>2.72%</t>
         </is>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43703</v>
+        <v>43794</v>
       </c>
       <c r="C42" t="n">
         <v>0.95</v>
@@ -1389,11 +1389,11 @@
         </is>
       </c>
       <c r="E42" s="2" t="n">
-        <v>43718</v>
+        <v>43809</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2.86%</t>
+          <t>2.62%</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>44328</v>
+        <v>44420</v>
       </c>
       <c r="C48" t="n">
         <v>0.87</v>
@@ -1479,11 +1479,11 @@
         </is>
       </c>
       <c r="E48" s="2" t="n">
-        <v>44357</v>
+        <v>44449</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5.42%</t>
+          <t>6.01%</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>44236</v>
+        <v>44328</v>
       </c>
       <c r="C49" t="n">
         <v>0.87</v>
@@ -1505,11 +1505,11 @@
         </is>
       </c>
       <c r="E49" s="2" t="n">
-        <v>44265</v>
+        <v>44357</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6.17%</t>
+          <t>6.02%</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>44145</v>
+        <v>44236</v>
       </c>
       <c r="C50" t="n">
         <v>0.87</v>
@@ -1531,11 +1531,11 @@
         </is>
       </c>
       <c r="E50" s="2" t="n">
-        <v>44175</v>
+        <v>44265</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>6.17%</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>44055</v>
+        <v>44145</v>
       </c>
       <c r="C51" t="n">
         <v>0.87</v>
@@ -1557,11 +1557,11 @@
         </is>
       </c>
       <c r="E51" s="2" t="n">
-        <v>44084</v>
+        <v>44175</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10.60%</t>
+          <t>7.59%</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43963</v>
+        <v>44055</v>
       </c>
       <c r="C52" t="n">
         <v>0.87</v>
@@ -1583,11 +1583,11 @@
         </is>
       </c>
       <c r="E52" s="2" t="n">
-        <v>43992</v>
+        <v>44084</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>7.99%</t>
+          <t>10.60%</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43871</v>
+        <v>43963</v>
       </c>
       <c r="C53" t="n">
         <v>0.87</v>
@@ -1609,11 +1609,11 @@
         </is>
       </c>
       <c r="E53" s="2" t="n">
-        <v>43900</v>
+        <v>43992</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7.74%</t>
+          <t>7.99%</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43777</v>
+        <v>43871</v>
       </c>
       <c r="C54" t="n">
         <v>0.87</v>
@@ -1635,11 +1635,11 @@
         </is>
       </c>
       <c r="E54" s="2" t="n">
-        <v>43809</v>
+        <v>43900</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5.38%</t>
+          <t>7.74%</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43689</v>
+        <v>43777</v>
       </c>
       <c r="C55" t="n">
         <v>0.87</v>
@@ -1661,11 +1661,11 @@
         </is>
       </c>
       <c r="E55" s="2" t="n">
-        <v>43718</v>
+        <v>43809</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>5.08%</t>
+          <t>5.38%</t>
         </is>
       </c>
     </row>
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>44350</v>
+        <v>44441</v>
       </c>
       <c r="C57" t="n">
-        <v>0.18</v>
+        <v>0.21</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1687,11 +1687,11 @@
         </is>
       </c>
       <c r="E57" s="2" t="n">
-        <v>44372</v>
+        <v>44463</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1.79%</t>
+          <t>2.09%</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>44259</v>
+        <v>44350</v>
       </c>
       <c r="C58" t="n">
         <v>0.18</v>
@@ -1713,11 +1713,11 @@
         </is>
       </c>
       <c r="E58" s="2" t="n">
-        <v>44281</v>
+        <v>44372</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.86%</t>
+          <t>1.91%</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>44168</v>
+        <v>44259</v>
       </c>
       <c r="C59" t="n">
         <v>0.18</v>
@@ -1739,11 +1739,11 @@
         </is>
       </c>
       <c r="E59" s="2" t="n">
-        <v>44189</v>
+        <v>44281</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2.12%</t>
+          <t>1.86%</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>44077</v>
+        <v>44168</v>
       </c>
       <c r="C60" t="n">
         <v>0.18</v>
@@ -1765,11 +1765,11 @@
         </is>
       </c>
       <c r="E60" s="2" t="n">
-        <v>44099</v>
+        <v>44189</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2.98%</t>
+          <t>2.12%</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43986</v>
+        <v>44077</v>
       </c>
       <c r="C61" t="n">
         <v>0.18</v>
@@ -1791,11 +1791,11 @@
         </is>
       </c>
       <c r="E61" s="2" t="n">
-        <v>44008</v>
+        <v>44099</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2.95%</t>
+          <t>2.98%</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43895</v>
+        <v>43986</v>
       </c>
       <c r="C62" t="n">
         <v>0.18</v>
@@ -1817,11 +1817,11 @@
         </is>
       </c>
       <c r="E62" s="2" t="n">
-        <v>43917</v>
+        <v>44008</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3.20%</t>
+          <t>2.95%</t>
         </is>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43804</v>
+        <v>43895</v>
       </c>
       <c r="C63" t="n">
         <v>0.18</v>
@@ -1843,11 +1843,11 @@
         </is>
       </c>
       <c r="E63" s="2" t="n">
-        <v>43826</v>
+        <v>43917</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2.17%</t>
+          <t>3.20%</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43713</v>
+        <v>43804</v>
       </c>
       <c r="C64" t="n">
         <v>0.18</v>
@@ -1869,11 +1869,11 @@
         </is>
       </c>
       <c r="E64" s="2" t="n">
-        <v>43735</v>
+        <v>43826</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2.37%</t>
+          <t>2.17%</t>
         </is>
       </c>
     </row>
@@ -1884,10 +1884,10 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>44322</v>
+        <v>44413</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1895,11 +1895,11 @@
         </is>
       </c>
       <c r="E66" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>0.91%</t>
+          <t>1.64%</t>
         </is>
       </c>
     </row>
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>44231</v>
+        <v>44322</v>
       </c>
       <c r="C67" t="n">
         <v>0.1</v>
@@ -1921,11 +1921,11 @@
         </is>
       </c>
       <c r="E67" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.91%</t>
+          <t>0.89%</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>44140</v>
+        <v>44231</v>
       </c>
       <c r="C68" t="n">
         <v>0.1</v>
@@ -1947,11 +1947,11 @@
         </is>
       </c>
       <c r="E68" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1.24%</t>
+          <t>0.91%</t>
         </is>
       </c>
     </row>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>44049</v>
+        <v>44140</v>
       </c>
       <c r="C69" t="n">
         <v>0.1</v>
@@ -1973,11 +1973,11 @@
         </is>
       </c>
       <c r="E69" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>1.76%</t>
+          <t>1.24%</t>
         </is>
       </c>
     </row>
@@ -1988,10 +1988,10 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>43958</v>
+        <v>44049</v>
       </c>
       <c r="C70" t="n">
-        <v>0.51</v>
+        <v>0.1</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1999,11 +1999,11 @@
         </is>
       </c>
       <c r="E70" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>8.00%</t>
+          <t>1.76%</t>
         </is>
       </c>
     </row>
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>43867</v>
+        <v>43958</v>
       </c>
       <c r="C71" t="n">
         <v>0.51</v>
@@ -2025,11 +2025,11 @@
         </is>
       </c>
       <c r="E71" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>7.18%</t>
+          <t>8.00%</t>
         </is>
       </c>
     </row>
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>43776</v>
+        <v>43867</v>
       </c>
       <c r="C72" t="n">
         <v>0.51</v>
@@ -2051,11 +2051,11 @@
         </is>
       </c>
       <c r="E72" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>4.33%</t>
+          <t>7.18%</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>43685</v>
+        <v>43776</v>
       </c>
       <c r="C73" t="n">
         <v>0.51</v>
@@ -2077,11 +2077,11 @@
         </is>
       </c>
       <c r="E73" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4.08%</t>
+          <t>4.33%</t>
         </is>
       </c>
     </row>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>44322</v>
+        <v>44413</v>
       </c>
       <c r="C75" t="n">
         <v>0.3475</v>
@@ -2103,11 +2103,11 @@
         </is>
       </c>
       <c r="E75" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2.52%</t>
+          <t>2.58%</t>
         </is>
       </c>
     </row>
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>44231</v>
+        <v>44322</v>
       </c>
       <c r="C76" t="n">
         <v>0.3475</v>
@@ -2129,11 +2129,11 @@
         </is>
       </c>
       <c r="E76" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2.22%</t>
+          <t>2.44%</t>
         </is>
       </c>
     </row>
@@ -2144,10 +2144,10 @@
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>44140</v>
+        <v>44231</v>
       </c>
       <c r="C77" t="n">
-        <v>0.33</v>
+        <v>0.3475</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2155,11 +2155,11 @@
         </is>
       </c>
       <c r="E77" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2.25%</t>
+          <t>2.22%</t>
         </is>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>44049</v>
+        <v>44140</v>
       </c>
       <c r="C78" t="n">
         <v>0.33</v>
@@ -2181,11 +2181,11 @@
         </is>
       </c>
       <c r="E78" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2.62%</t>
+          <t>2.25%</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>43957</v>
+        <v>44049</v>
       </c>
       <c r="C79" t="n">
         <v>0.33</v>
@@ -2207,11 +2207,11 @@
         </is>
       </c>
       <c r="E79" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2.24%</t>
+          <t>2.62%</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>43867</v>
+        <v>43957</v>
       </c>
       <c r="C80" t="n">
         <v>0.33</v>
@@ -2233,11 +2233,11 @@
         </is>
       </c>
       <c r="E80" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2.45%</t>
+          <t>2.24%</t>
         </is>
       </c>
     </row>
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>43775</v>
+        <v>43867</v>
       </c>
       <c r="C81" t="n">
-        <v>0.315</v>
+        <v>0.33</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2259,11 +2259,11 @@
         </is>
       </c>
       <c r="E81" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1.99%</t>
+          <t>2.45%</t>
         </is>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>43683</v>
+        <v>43775</v>
       </c>
       <c r="C82" t="n">
         <v>0.315</v>
@@ -2285,843 +2285,11 @@
         </is>
       </c>
       <c r="E82" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2.39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>44294</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E84" s="2" t="n">
-        <v>44319</v>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>7.26%</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B85" s="2" t="n">
-        <v>44204</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E85" s="2" t="n">
-        <v>44228</v>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>6.91%</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B86" s="2" t="n">
-        <v>44112</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E86" s="2" t="n">
-        <v>44137</v>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>6.78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="n">
-        <v>44021</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E87" s="2" t="n">
-        <v>44046</v>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>7.42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="n">
-        <v>43929</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="n">
-        <v>43952</v>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>7.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="n">
-        <v>43839</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="n">
-        <v>43864</v>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>7.32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="n">
-        <v>43747</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="n">
-        <v>43770</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>5.32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="n">
-        <v>43655</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="n">
-        <v>43678</v>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>5.46%</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="B93" s="2" t="n">
-        <v>44329</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="n">
-        <v>44348</v>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>0.55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="B94" s="2" t="n">
-        <v>44238</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E94" s="2" t="n">
-        <v>44256</v>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>0.56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="B95" s="2" t="n">
-        <v>44147</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E95" s="2" t="n">
-        <v>44166</v>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>0.65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="n">
-        <v>44056</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E96" s="2" t="n">
-        <v>44075</v>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>0.63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="n">
-        <v>43964</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="n">
-        <v>43984</v>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>0.61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="n">
-        <v>43874</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E98" s="2" t="n">
-        <v>43893</v>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>0.75%</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="n">
-        <v>43783</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E99" s="2" t="n">
-        <v>43802</v>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>0.59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="n">
-        <v>43692</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="n">
-        <v>43711</v>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>0.59%</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="n">
-        <v>44379</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E102" s="2" t="n">
-        <v>44405</v>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>2.81%</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B103" s="2" t="n">
-        <v>44291</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E103" s="2" t="n">
-        <v>44314</v>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>2.78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="n">
-        <v>44200</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E104" s="2" t="n">
-        <v>44216</v>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2.94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="n">
-        <v>44105</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E105" s="2" t="n">
-        <v>44125</v>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>3.25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="n">
-        <v>44014</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E106" s="2" t="n">
-        <v>44034</v>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>3.60%</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="n">
-        <v>43923</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E107" s="2" t="n">
-        <v>43943</v>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>3.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="n">
-        <v>43832</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="n">
-        <v>43852</v>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2.85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>CSCO</t>
-        </is>
-      </c>
-      <c r="B109" s="2" t="n">
-        <v>43741</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="n">
-        <v>43761</v>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>3.19%</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>CVX</t>
-        </is>
-      </c>
-      <c r="B111" s="2" t="n">
-        <v>44334</v>
-      </c>
-      <c r="C111" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="n">
-        <v>44357</v>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>5.04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>CVX</t>
-        </is>
-      </c>
-      <c r="B112" s="2" t="n">
-        <v>44243</v>
-      </c>
-      <c r="C112" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="n">
-        <v>44265</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>5.02%</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>CVX</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="n">
-        <v>44152</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="n">
-        <v>44175</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>5.77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>CVX</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="n">
-        <v>44061</v>
-      </c>
-      <c r="C114" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="n">
-        <v>44084</v>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>7.42%</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>CVX</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="n">
-        <v>43969</v>
-      </c>
-      <c r="C115" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E115" s="2" t="n">
-        <v>43992</v>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>5.79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>CVX</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="n">
-        <v>43875</v>
-      </c>
-      <c r="C116" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E116" s="2" t="n">
-        <v>43900</v>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>5.74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>CVX</t>
-        </is>
-      </c>
-      <c r="B117" s="2" t="n">
-        <v>43784</v>
-      </c>
-      <c r="C117" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E117" s="2" t="n">
-        <v>43809</v>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>4.28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>CVX</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="n">
-        <v>43693</v>
-      </c>
-      <c r="C118" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>quarterly</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="n">
-        <v>43718</v>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>4.03%</t>
+          <t>1.99%</t>
         </is>
       </c>
     </row>
